--- a/data/trans_orig/P6711-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>16050</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9365</v>
+        <v>9111</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25612</v>
+        <v>24777</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1937254395068458</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.113034775132304</v>
+        <v>0.1099677287122318</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3091293222783823</v>
+        <v>0.2990598393226374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -763,19 +763,19 @@
         <v>19366</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12332</v>
+        <v>12301</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27917</v>
+        <v>27696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2205691149992366</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.140449660290921</v>
+        <v>0.1401006241023822</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3179605989466737</v>
+        <v>0.3154414228194866</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -784,19 +784,19 @@
         <v>35417</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25374</v>
+        <v>26052</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47709</v>
+        <v>47396</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2075365882757687</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.148686867467017</v>
+        <v>0.1526591781855099</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2795676835038831</v>
+        <v>0.2777352995293615</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>5925</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2072</v>
+        <v>1930</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11848</v>
+        <v>11939</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07151621228748294</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0250100130511053</v>
+        <v>0.02329463194024061</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1430093179871125</v>
+        <v>0.144104968054786</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -834,19 +834,19 @@
         <v>6808</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2923</v>
+        <v>2864</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12464</v>
+        <v>12632</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0775334813085317</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03329294021358734</v>
+        <v>0.03261533319536518</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1419614668617824</v>
+        <v>0.1438678267346999</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -855,19 +855,19 @@
         <v>12733</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7527</v>
+        <v>6936</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21609</v>
+        <v>20655</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07461211462231383</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04410940366281655</v>
+        <v>0.04064641571067417</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1266237127103177</v>
+        <v>0.1210332066010765</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>18731</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11684</v>
+        <v>11649</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27421</v>
+        <v>27811</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2260761196580523</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1410301488022316</v>
+        <v>0.1406017734394053</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3309722064720154</v>
+        <v>0.3356695925189208</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -905,19 +905,19 @@
         <v>9851</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4884</v>
+        <v>4870</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16857</v>
+        <v>15951</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1122006210938668</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05562935274333985</v>
+        <v>0.05546634803273745</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1919930473192467</v>
+        <v>0.1816699938518339</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -926,19 +926,19 @@
         <v>28582</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19880</v>
+        <v>19313</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39654</v>
+        <v>39896</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.167486845910832</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1164972722068477</v>
+        <v>0.1131721105711286</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2323663759495387</v>
+        <v>0.2337837765344087</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>15571</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9053</v>
+        <v>9478</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24009</v>
+        <v>23285</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1879455657793058</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1092665930767392</v>
+        <v>0.1144034727820941</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2897898828591474</v>
+        <v>0.2810489689610611</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -976,19 +976,19 @@
         <v>18077</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10913</v>
+        <v>11178</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25262</v>
+        <v>26449</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2058826178769489</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1242881314722142</v>
+        <v>0.1273140152855294</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2877173239195229</v>
+        <v>0.3012380531294593</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -997,19 +997,19 @@
         <v>33648</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23821</v>
+        <v>23959</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45341</v>
+        <v>44409</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1971742310217646</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.139590776963439</v>
+        <v>0.1403961305704809</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2656900196103039</v>
+        <v>0.26023133978742</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>26573</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18191</v>
+        <v>18294</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35202</v>
+        <v>36040</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3207366627683131</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.219560518107901</v>
+        <v>0.2208110338616576</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4248794179416518</v>
+        <v>0.4349988254918358</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -1047,19 +1047,19 @@
         <v>33699</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24538</v>
+        <v>24918</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>43371</v>
+        <v>43274</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3838141647214161</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2794731129330599</v>
+        <v>0.283805555160039</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4939738324147006</v>
+        <v>0.4928691399033843</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>58</v>
@@ -1068,19 +1068,19 @@
         <v>60273</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>48873</v>
+        <v>48311</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>74416</v>
+        <v>73553</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3531902201693209</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2863915155615446</v>
+        <v>0.283098080959726</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4360694881183805</v>
+        <v>0.4310137145289479</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>46448</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33509</v>
+        <v>32886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60473</v>
+        <v>60365</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1213436348546744</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0875421649475895</v>
+        <v>0.08591331312581384</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1579855720655378</v>
+        <v>0.157703398474907</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -1193,19 +1193,19 @@
         <v>32855</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23270</v>
+        <v>23442</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45899</v>
+        <v>45653</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1195236184695011</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08465694211611169</v>
+        <v>0.08528067692696004</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1669785783086893</v>
+        <v>0.1660842813427127</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -1214,19 +1214,19 @@
         <v>79302</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63677</v>
+        <v>63552</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98873</v>
+        <v>97464</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1205829263187508</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09682346382133762</v>
+        <v>0.09663322505077314</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1503407915443274</v>
+        <v>0.1481981646588128</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>23728</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15729</v>
+        <v>15552</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35620</v>
+        <v>35434</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06198941939519031</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04109088179070702</v>
+        <v>0.04063025044763759</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09305697012203763</v>
+        <v>0.09257072267979098</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -1264,19 +1264,19 @@
         <v>28754</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18692</v>
+        <v>19650</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42168</v>
+        <v>41005</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1046067140052941</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06800148864448198</v>
+        <v>0.07148646066648785</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1534041368561259</v>
+        <v>0.1491736266090858</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>47</v>
@@ -1285,19 +1285,19 @@
         <v>52482</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>40026</v>
+        <v>37794</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>69182</v>
+        <v>69094</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07980208308985794</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06086099873895423</v>
+        <v>0.0574682070477165</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1051946749339795</v>
+        <v>0.105060478859556</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>77072</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>62631</v>
+        <v>62480</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>95430</v>
+        <v>95560</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2013486156714111</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1636223535509354</v>
+        <v>0.1632274706813339</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.249308685611823</v>
+        <v>0.2496488656498352</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -1335,19 +1335,19 @@
         <v>41558</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31569</v>
+        <v>30329</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55841</v>
+        <v>54726</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1511859335020203</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1148476576555308</v>
+        <v>0.1103369963250457</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2031491761989597</v>
+        <v>0.1990908079329031</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>115</v>
@@ -1356,19 +1356,19 @@
         <v>118630</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>99907</v>
+        <v>99392</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>139966</v>
+        <v>140398</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1803822217301585</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.151913010966178</v>
+        <v>0.1511300223908838</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2128248158606134</v>
+        <v>0.2134821997139062</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>75325</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61087</v>
+        <v>61353</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90489</v>
+        <v>92886</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1967862691488322</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1595883069794115</v>
+        <v>0.1602847893882011</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2364012547544607</v>
+        <v>0.2426633864818697</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -1406,19 +1406,19 @@
         <v>50387</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37852</v>
+        <v>38062</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63567</v>
+        <v>63589</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1833069998078505</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1377040142899155</v>
+        <v>0.138467152658289</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2312553857436155</v>
+        <v>0.2313358305076699</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>126</v>
@@ -1427,19 +1427,19 @@
         <v>125713</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>108023</v>
+        <v>106789</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>146515</v>
+        <v>145440</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1911523664382686</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1642550252357742</v>
+        <v>0.1623784587577169</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2227829678015046</v>
+        <v>0.2211481502516501</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>160204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>139480</v>
+        <v>137202</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>180630</v>
+        <v>180253</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4185320609298919</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3643907617308066</v>
+        <v>0.3584378001524522</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4718937604150915</v>
+        <v>0.4709081458917024</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>114</v>
@@ -1477,19 +1477,19 @@
         <v>121325</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>104892</v>
+        <v>104903</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>139564</v>
+        <v>138713</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.441376734215334</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3815928877445958</v>
+        <v>0.3816341821535782</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5077276812910887</v>
+        <v>0.5046319666405322</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>262</v>
@@ -1498,19 +1498,19 @@
         <v>281530</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>255527</v>
+        <v>256873</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>305873</v>
+        <v>308777</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4280804024229641</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.388541227319866</v>
+        <v>0.3905877297665507</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4650944223623439</v>
+        <v>0.4695101056864853</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>48747</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35869</v>
+        <v>35884</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64449</v>
+        <v>62974</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1148881889893352</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08453669354247885</v>
+        <v>0.08457259617157591</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.151894582770871</v>
+        <v>0.1484186510758216</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -1623,19 +1623,19 @@
         <v>28224</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19516</v>
+        <v>19151</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40071</v>
+        <v>39413</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09874841107730065</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0682805741021023</v>
+        <v>0.06700328520921825</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1401964986117246</v>
+        <v>0.1378971796514435</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -1644,19 +1644,19 @@
         <v>76971</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59601</v>
+        <v>59044</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94674</v>
+        <v>92647</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1083920495828433</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08393043289982635</v>
+        <v>0.08314718500468854</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1333211325249346</v>
+        <v>0.1304665730993551</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>38374</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27135</v>
+        <v>28146</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52522</v>
+        <v>51625</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09044008785397409</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06395228124122693</v>
+        <v>0.0663351626207206</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.123784554655502</v>
+        <v>0.1216700906025267</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -1694,19 +1694,19 @@
         <v>18942</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10787</v>
+        <v>11954</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29868</v>
+        <v>29673</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06627212903198418</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03773999140506612</v>
+        <v>0.04182393227583066</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1045002659109505</v>
+        <v>0.1038181811720003</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>55</v>
@@ -1715,19 +1715,19 @@
         <v>57316</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>44546</v>
+        <v>43054</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>73978</v>
+        <v>73129</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08071266591956594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06273037533624205</v>
+        <v>0.06062941993774441</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1041772339778862</v>
+        <v>0.1029812382147685</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>68607</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>53830</v>
+        <v>55232</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>84987</v>
+        <v>83160</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1616930219930718</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1268666117300924</v>
+        <v>0.1301717620946663</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2002978189034379</v>
+        <v>0.195993571196539</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>50</v>
@@ -1765,19 +1765,19 @@
         <v>51289</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>40658</v>
+        <v>39637</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>65894</v>
+        <v>65032</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1794457335023936</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1422513331669202</v>
+        <v>0.1386801710038811</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.230545373776142</v>
+        <v>0.2275301795564404</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>120</v>
@@ -1786,19 +1786,19 @@
         <v>119895</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>101516</v>
+        <v>101088</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>140889</v>
+        <v>140429</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.168838355060003</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1429559425774378</v>
+        <v>0.1423538421558588</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.19840226598628</v>
+        <v>0.1977537157014872</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>68075</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52183</v>
+        <v>54372</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>83844</v>
+        <v>84817</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1604401366315069</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1229849595546477</v>
+        <v>0.1281443555561316</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1976042822238193</v>
+        <v>0.199896726711407</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>54</v>
@@ -1836,19 +1836,19 @@
         <v>55811</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43113</v>
+        <v>43274</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70904</v>
+        <v>70990</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1952665057083084</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1508391206595811</v>
+        <v>0.151404129685659</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2480746006038698</v>
+        <v>0.248376549452385</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>121</v>
@@ -1857,19 +1857,19 @@
         <v>123886</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>105759</v>
+        <v>105123</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>145169</v>
+        <v>144202</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1744574886531941</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1489307411871338</v>
+        <v>0.1480349867261657</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2044284337263703</v>
+        <v>0.2030666054289059</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>200499</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>180155</v>
+        <v>180683</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>222460</v>
+        <v>222230</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.472538564532112</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4245919488399096</v>
+        <v>0.4258364551143512</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5242967918227129</v>
+        <v>0.5237551597640789</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>124</v>
@@ -1907,19 +1907,19 @@
         <v>131553</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>114613</v>
+        <v>114318</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>148637</v>
+        <v>147701</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4602672206800132</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4009990422491499</v>
+        <v>0.3999681700087516</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.520040910195994</v>
+        <v>0.5167669568945795</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>314</v>
@@ -1928,19 +1928,19 @@
         <v>332052</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>305608</v>
+        <v>307985</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>359599</v>
+        <v>360056</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4675994407843936</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4303604880306335</v>
+        <v>0.4337084325478999</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.506392343588299</v>
+        <v>0.5070359063793927</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>30900</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20917</v>
+        <v>20901</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43207</v>
+        <v>43753</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08404520603221083</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05689069796155143</v>
+        <v>0.05684920900535682</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1175168065139648</v>
+        <v>0.1190024599544215</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -2053,19 +2053,19 @@
         <v>42953</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31304</v>
+        <v>31664</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57034</v>
+        <v>57107</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.19152761110398</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1395849233943341</v>
+        <v>0.141192004565595</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2543178464871162</v>
+        <v>0.2546424900607656</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -2074,19 +2074,19 @@
         <v>73853</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>57300</v>
+        <v>59048</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90743</v>
+        <v>92788</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1247670243216959</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09680257958566232</v>
+        <v>0.09975648324567918</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.153301075801609</v>
+        <v>0.1567560660432389</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>15121</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8690</v>
+        <v>7992</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26415</v>
+        <v>24782</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04112718379065672</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02363564055832689</v>
+        <v>0.02173643225519279</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0718458192516828</v>
+        <v>0.06740341577565698</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -2124,19 +2124,19 @@
         <v>16487</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9671</v>
+        <v>9869</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>27511</v>
+        <v>26399</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07351755233634046</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04312244761369038</v>
+        <v>0.04400797391259169</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1226718151566215</v>
+        <v>0.1177136500466785</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>27</v>
@@ -2145,19 +2145,19 @@
         <v>31608</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>21016</v>
+        <v>22116</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>46466</v>
+        <v>46283</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05339891051063526</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03550383847805114</v>
+        <v>0.03736339417998184</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07850037504982281</v>
+        <v>0.07819061893325738</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>75874</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>59567</v>
+        <v>60226</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>94570</v>
+        <v>95096</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2063694603383651</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1620155986678103</v>
+        <v>0.1638070764071136</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2572189981931974</v>
+        <v>0.2586494662619354</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -2195,19 +2195,19 @@
         <v>25333</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15465</v>
+        <v>16094</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>37065</v>
+        <v>38011</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1129630515522884</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06896113740125386</v>
+        <v>0.0717628916066694</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1652754582868814</v>
+        <v>0.1694934806114392</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>83</v>
@@ -2216,19 +2216,19 @@
         <v>101208</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>80558</v>
+        <v>82135</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>122125</v>
+        <v>121803</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1709806094550958</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1360941319907947</v>
+        <v>0.1387590562402202</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2063173395224661</v>
+        <v>0.2057736516122075</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>77375</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>61260</v>
+        <v>60047</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>93688</v>
+        <v>94023</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2104517328473419</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1666210030674782</v>
+        <v>0.1633195781671551</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2548202516782171</v>
+        <v>0.2557316359666245</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -2266,19 +2266,19 @@
         <v>44356</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31940</v>
+        <v>32840</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59180</v>
+        <v>57991</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1977847518005444</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1424225526453475</v>
+        <v>0.1464371974883446</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2638848234340294</v>
+        <v>0.258585416973227</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>109</v>
@@ -2287,19 +2287,19 @@
         <v>121731</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>102297</v>
+        <v>101083</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>142975</v>
+        <v>144630</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.205652598513498</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1728207210297712</v>
+        <v>0.1707704068150419</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2415414417777065</v>
+        <v>0.2443373666657044</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>168392</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>147114</v>
+        <v>147725</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>189633</v>
+        <v>189543</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4580064169914255</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4001324748752126</v>
+        <v>0.4017955971498575</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5157787142748809</v>
+        <v>0.5155346010276336</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>82</v>
@@ -2337,19 +2337,19 @@
         <v>95134</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>80949</v>
+        <v>80482</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>111536</v>
+        <v>111488</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4242070332068468</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3609560312466534</v>
+        <v>0.358871772482191</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4973453710324136</v>
+        <v>0.4971293264573498</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>233</v>
@@ -2358,19 +2358,19 @@
         <v>263526</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>237130</v>
+        <v>236166</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>288051</v>
+        <v>287174</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4452008571990749</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4006078729828571</v>
+        <v>0.3989789433137804</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4866338971682083</v>
+        <v>0.4851515888995849</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>15961</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8999</v>
+        <v>9300</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25390</v>
+        <v>25067</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1014344177197291</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05719185033222995</v>
+        <v>0.05910364235217371</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.161357676268265</v>
+        <v>0.159303418680515</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -2483,19 +2483,19 @@
         <v>7598</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3318</v>
+        <v>3177</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15347</v>
+        <v>14459</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1090222824854736</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04761159889472503</v>
+        <v>0.04558150575861875</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2202082468201124</v>
+        <v>0.20747557887007</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>22</v>
@@ -2504,19 +2504,19 @@
         <v>23559</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15262</v>
+        <v>14539</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>34745</v>
+        <v>34334</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1037635193191847</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06721957059765318</v>
+        <v>0.06403653024822682</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1530323243393515</v>
+        <v>0.1512253372664489</v>
       </c>
     </row>
     <row r="29">
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6190</v>
+        <v>6229</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01291371008045295</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0393401028036795</v>
+        <v>0.03958962198971679</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6088</v>
+        <v>6934</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02810038631978301</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08735441201129834</v>
+        <v>0.09950242119551228</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2575,19 +2575,19 @@
         <v>3990</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10342</v>
+        <v>9123</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01757527338072714</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004481434595337524</v>
+        <v>0.004474600440859585</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04555058835464219</v>
+        <v>0.04018362925796126</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>25198</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16020</v>
+        <v>15901</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>36007</v>
+        <v>35812</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1601380248983652</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1018129661090184</v>
+        <v>0.1010560682955157</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2288308034580077</v>
+        <v>0.2275919648957269</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -2625,19 +2625,19 @@
         <v>10510</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5483</v>
+        <v>5171</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18424</v>
+        <v>18162</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1508091894646375</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07867951770677478</v>
+        <v>0.07420336508132529</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2643711960950372</v>
+        <v>0.2606024735008185</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>31</v>
@@ -2646,19 +2646,19 @@
         <v>35708</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>24947</v>
+        <v>25133</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>48622</v>
+        <v>49070</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1572745308587977</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1098788619077746</v>
+        <v>0.1106995443553453</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2141538120001125</v>
+        <v>0.2161277262712409</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>26054</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>17605</v>
+        <v>17464</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>36069</v>
+        <v>36671</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.165581986946989</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1118824701486447</v>
+        <v>0.1109856065208485</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2292244931520488</v>
+        <v>0.23305523590894</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -2696,19 +2696,19 @@
         <v>10359</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4339</v>
+        <v>4754</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17979</v>
+        <v>17041</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1486489978452033</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06226398201909641</v>
+        <v>0.0682139806397629</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.25798205664616</v>
+        <v>0.2445279784983663</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>34</v>
@@ -2717,19 +2717,19 @@
         <v>36414</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>26929</v>
+        <v>25663</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>47835</v>
+        <v>48577</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1603843914154266</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1186077274033184</v>
+        <v>0.1130335621913027</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2106884882274104</v>
+        <v>0.213956641916942</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>88106</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>75771</v>
+        <v>75365</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>102153</v>
+        <v>101743</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5599318603544639</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4815427247642213</v>
+        <v>0.4789633429425761</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.649205058696447</v>
+        <v>0.6466000765040641</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>36</v>
@@ -2767,19 +2767,19 @@
         <v>39265</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>30631</v>
+        <v>29993</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>47922</v>
+        <v>47845</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5634191438849026</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4395296986232029</v>
+        <v>0.4303687594023437</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.687630818186276</v>
+        <v>0.6865288264119662</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>119</v>
@@ -2788,19 +2788,19 @@
         <v>127371</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>111074</v>
+        <v>111062</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>143090</v>
+        <v>142398</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5610022850258639</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.489223873676873</v>
+        <v>0.4891699110787518</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6302368019626093</v>
+        <v>0.6271926611583466</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>158106</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>135187</v>
+        <v>135855</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>186889</v>
+        <v>185705</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1117403237839614</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09554214818584224</v>
+        <v>0.09601411831432519</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1320819288944506</v>
+        <v>0.1312452899406831</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>120</v>
@@ -2913,19 +2913,19 @@
         <v>130995</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>110688</v>
+        <v>110165</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>154870</v>
+        <v>154988</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1389940255188589</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1174469057568899</v>
+        <v>0.1168915794506577</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1643263255711285</v>
+        <v>0.1644525270516064</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>267</v>
@@ -2934,19 +2934,19 @@
         <v>289101</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>257104</v>
+        <v>254911</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>321913</v>
+        <v>321266</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1226359454313633</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1090628733644938</v>
+        <v>0.1081325823151612</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1365542915639117</v>
+        <v>0.1362798662943059</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>85180</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>69244</v>
+        <v>67569</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>105784</v>
+        <v>104315</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06020037512586694</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04893770104894796</v>
+        <v>0.04775418539566483</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07476204551267869</v>
+        <v>0.07372366413006391</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>65</v>
@@ -2984,19 +2984,19 @@
         <v>72949</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>56688</v>
+        <v>56564</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>91225</v>
+        <v>90590</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07740353481154212</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06014954235716129</v>
+        <v>0.06001801656017252</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09679515838793563</v>
+        <v>0.09612198686576758</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>146</v>
@@ -3005,19 +3005,19 @@
         <v>158129</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>131835</v>
+        <v>135599</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>188799</v>
+        <v>185609</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06707794063598424</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05592393074315857</v>
+        <v>0.05752063746756424</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0800877488342974</v>
+        <v>0.07873479422861102</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>265481</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>233408</v>
+        <v>234524</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>298476</v>
+        <v>294653</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1876266613425647</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1649590763311311</v>
+        <v>0.1657479528392332</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2109451183413873</v>
+        <v>0.2082437424473441</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>129</v>
@@ -3055,19 +3055,19 @@
         <v>138541</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>117433</v>
+        <v>118050</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>162079</v>
+        <v>163284</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1470010982423131</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1246042685751718</v>
+        <v>0.1252584811721371</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1719762281265745</v>
+        <v>0.1732543495216936</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>376</v>
@@ -3076,19 +3076,19 @@
         <v>404023</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>366978</v>
+        <v>369052</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>447288</v>
+        <v>442007</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1713851698542284</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1556707492650017</v>
+        <v>0.1565506023755287</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1897380257855452</v>
+        <v>0.1874978012176911</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>262402</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>236011</v>
+        <v>235593</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>294349</v>
+        <v>293026</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.185450178165159</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1667985190553989</v>
+        <v>0.1665037524462046</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2080289748628635</v>
+        <v>0.2070934512695125</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>168</v>
@@ -3126,19 +3126,19 @@
         <v>178990</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>154074</v>
+        <v>155638</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>204680</v>
+        <v>205981</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1899194187406686</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1634824785621325</v>
+        <v>0.1651417495418325</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2171788943293518</v>
+        <v>0.2185586337114716</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>423</v>
@@ -3147,19 +3147,19 @@
         <v>441392</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>405914</v>
+        <v>401445</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>483215</v>
+        <v>482659</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1872369135905202</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.172187602959589</v>
+        <v>0.1702916191214498</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2049781599579034</v>
+        <v>0.2047426003583778</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>643775</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>610647</v>
+        <v>605311</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>684265</v>
+        <v>682599</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.454982461582448</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4315698383252452</v>
+        <v>0.4277984070312221</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4835989102218116</v>
+        <v>0.4824215459714211</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>388</v>
@@ -3197,19 +3197,19 @@
         <v>420976</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>386776</v>
+        <v>388758</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>451887</v>
+        <v>450910</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4466819226866173</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4103940742993996</v>
+        <v>0.4124963702658143</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4794807627739177</v>
+        <v>0.4784439599874707</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>986</v>
@@ -3218,19 +3218,19 @@
         <v>1064751</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1015766</v>
+        <v>1017221</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1114004</v>
+        <v>1115899</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4516640304879039</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4308848836459407</v>
+        <v>0.4315018458272424</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4725570084028041</v>
+        <v>0.4733606931671573</v>
       </c>
     </row>
     <row r="39">
@@ -3563,19 +3563,19 @@
         <v>14277</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8594</v>
+        <v>7934</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21838</v>
+        <v>21533</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.180469076905041</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1086382473932333</v>
+        <v>0.1002878800178162</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2760541636582169</v>
+        <v>0.2721930126958997</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -3584,19 +3584,19 @@
         <v>13287</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7682</v>
+        <v>8002</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21603</v>
+        <v>21714</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1446570009982853</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0836361157008869</v>
+        <v>0.08711672915917493</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2351867713432456</v>
+        <v>0.2363972241485452</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -3605,19 +3605,19 @@
         <v>27564</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18942</v>
+        <v>19079</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38909</v>
+        <v>39130</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1612281168348775</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1107933489597632</v>
+        <v>0.1115984085002551</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.227585077581832</v>
+        <v>0.2288757208371806</v>
       </c>
     </row>
     <row r="5">
@@ -3634,19 +3634,19 @@
         <v>13709</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7748</v>
+        <v>7871</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21390</v>
+        <v>22753</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1732918354369287</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09793670813102806</v>
+        <v>0.09949466644902036</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2703867502954196</v>
+        <v>0.2876138186930519</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -3655,19 +3655,19 @@
         <v>13777</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7506</v>
+        <v>8282</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20698</v>
+        <v>21708</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1499838582740447</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0817142291524558</v>
+        <v>0.09016351177133182</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2253349507209215</v>
+        <v>0.2363320871764742</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -3676,19 +3676,19 @@
         <v>27486</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19769</v>
+        <v>17959</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40906</v>
+        <v>38307</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1607690244422515</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1156349675061748</v>
+        <v>0.1050463865352987</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2392674013808278</v>
+        <v>0.22406580095027</v>
       </c>
     </row>
     <row r="6">
@@ -3705,19 +3705,19 @@
         <v>19682</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12362</v>
+        <v>12866</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27602</v>
+        <v>27844</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2488011048857043</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1562659526180322</v>
+        <v>0.1626326874462446</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3489078912319007</v>
+        <v>0.3519684785569686</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -3726,19 +3726,19 @@
         <v>20864</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13547</v>
+        <v>13596</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28958</v>
+        <v>28823</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2271421050441264</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1474778905878201</v>
+        <v>0.1480185552089139</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3152622688593858</v>
+        <v>0.3137919899894979</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>41</v>
@@ -3747,19 +3747,19 @@
         <v>40547</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30500</v>
+        <v>30540</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>52909</v>
+        <v>52760</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2371642494239727</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1784001833092672</v>
+        <v>0.178632823033899</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3094729018555066</v>
+        <v>0.3086043347900513</v>
       </c>
     </row>
     <row r="7">
@@ -3776,19 +3776,19 @@
         <v>14727</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8639</v>
+        <v>8068</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23255</v>
+        <v>22278</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1861582170236691</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1092089201522947</v>
+        <v>0.1019822930209414</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2939559661812041</v>
+        <v>0.2816110445276327</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -3797,19 +3797,19 @@
         <v>24290</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16019</v>
+        <v>16940</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33619</v>
+        <v>33179</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2644366443950827</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1743928537339071</v>
+        <v>0.1844242165984423</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3659999686273728</v>
+        <v>0.3612053907482919</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -3818,19 +3818,19 @@
         <v>39017</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29448</v>
+        <v>28727</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51161</v>
+        <v>50423</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2282153180789151</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1722472782998767</v>
+        <v>0.1680280302883911</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2992518901149927</v>
+        <v>0.2949309338124471</v>
       </c>
     </row>
     <row r="8">
@@ -3847,19 +3847,19 @@
         <v>16714</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10068</v>
+        <v>10097</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24503</v>
+        <v>24632</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2112797657486569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1272709226657632</v>
+        <v>0.1276315864962327</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3097332111270965</v>
+        <v>0.3113636039714101</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -3868,19 +3868,19 @@
         <v>19637</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12676</v>
+        <v>12986</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27459</v>
+        <v>27809</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2137803912884609</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1379983121894336</v>
+        <v>0.1413701581893552</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2989421879950426</v>
+        <v>0.302751212406883</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>35</v>
@@ -3889,19 +3889,19 @@
         <v>36351</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26204</v>
+        <v>26557</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47540</v>
+        <v>48524</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2126232912199832</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1532705274338657</v>
+        <v>0.1553393523477331</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2780676066693765</v>
+        <v>0.2838274416775207</v>
       </c>
     </row>
     <row r="9">
@@ -3993,19 +3993,19 @@
         <v>59624</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47173</v>
+        <v>46386</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77551</v>
+        <v>75018</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1732329054772992</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1370557054755479</v>
+        <v>0.1347695881961647</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2253176417074297</v>
+        <v>0.2179582800416025</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -4014,19 +4014,19 @@
         <v>45892</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34426</v>
+        <v>34605</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59105</v>
+        <v>58856</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1676642514339077</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1257714083533286</v>
+        <v>0.1264258835096303</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2159355538832802</v>
+        <v>0.2150266537016082</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>103</v>
@@ -4035,19 +4035,19 @@
         <v>105517</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87401</v>
+        <v>87889</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>125996</v>
+        <v>124998</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1707661190454922</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1414473312057679</v>
+        <v>0.1422380476654588</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2039088168896693</v>
+        <v>0.2022944316918284</v>
       </c>
     </row>
     <row r="11">
@@ -4064,19 +4064,19 @@
         <v>54745</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>41153</v>
+        <v>41998</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>70483</v>
+        <v>69113</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1590580684738506</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1195663202520123</v>
+        <v>0.1220226668520044</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2047816468983943</v>
+        <v>0.2008024373303826</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>53</v>
@@ -4085,19 +4085,19 @@
         <v>50657</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39111</v>
+        <v>38423</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>64615</v>
+        <v>63810</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1850717649149588</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1428873273406806</v>
+        <v>0.1403763969934496</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2360661004512495</v>
+        <v>0.233124290286374</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>103</v>
@@ -4106,19 +4106,19 @@
         <v>105403</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>86024</v>
+        <v>87099</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>125056</v>
+        <v>123875</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.170581541277521</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1392201338233109</v>
+        <v>0.1409596045111501</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2023877116040807</v>
+        <v>0.2004763580208153</v>
       </c>
     </row>
     <row r="12">
@@ -4135,19 +4135,19 @@
         <v>70743</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>57026</v>
+        <v>55974</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>87113</v>
+        <v>85146</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.205537591182877</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1656829798122062</v>
+        <v>0.1626264611609627</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2530985933225342</v>
+        <v>0.2473849635427108</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>62</v>
@@ -4156,19 +4156,19 @@
         <v>60846</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48656</v>
+        <v>48681</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>77478</v>
+        <v>75340</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2222961625326312</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1777626032482716</v>
+        <v>0.1778529806659022</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2830602943824599</v>
+        <v>0.2752491142500602</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>133</v>
@@ -4177,19 +4177,19 @@
         <v>131589</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>113435</v>
+        <v>112938</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>155490</v>
+        <v>153204</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2129612551598306</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1835814154478581</v>
+        <v>0.1827766291227015</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2516415699349939</v>
+        <v>0.2479420056542806</v>
       </c>
     </row>
     <row r="13">
@@ -4206,19 +4206,19 @@
         <v>81003</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64965</v>
+        <v>65342</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97460</v>
+        <v>97336</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2353467763828379</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1887498456818986</v>
+        <v>0.1898458638214009</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.28316108146435</v>
+        <v>0.282801393191399</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -4227,19 +4227,19 @@
         <v>60780</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47966</v>
+        <v>48807</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74661</v>
+        <v>73655</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2220555957591699</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1752390932702657</v>
+        <v>0.1783114795310133</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2727670192940767</v>
+        <v>0.2690922268507522</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>142</v>
@@ -4248,19 +4248,19 @@
         <v>141783</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121939</v>
+        <v>123344</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>161984</v>
+        <v>164680</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2294590872267717</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1973434022601155</v>
+        <v>0.1996172537788318</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2621512737511251</v>
+        <v>0.2665150620772598</v>
       </c>
     </row>
     <row r="14">
@@ -4277,19 +4277,19 @@
         <v>78070</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62942</v>
+        <v>64091</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95505</v>
+        <v>94842</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2268246584831353</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1828726810733387</v>
+        <v>0.1862098355075726</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2774829656335333</v>
+        <v>0.2755564034513661</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>57</v>
@@ -4298,19 +4298,19 @@
         <v>55540</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42906</v>
+        <v>44278</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>69836</v>
+        <v>70852</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2029122253593324</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1567524274205278</v>
+        <v>0.1617646785533856</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2551421638007631</v>
+        <v>0.2588524837774863</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>131</v>
@@ -4319,19 +4319,19 @@
         <v>133610</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>114668</v>
+        <v>112986</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154526</v>
+        <v>153163</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2162319972903844</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1855767300443845</v>
+        <v>0.1828534969392769</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2500820157789114</v>
+        <v>0.2478758581556255</v>
       </c>
     </row>
     <row r="15">
@@ -4423,19 +4423,19 @@
         <v>55458</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42539</v>
+        <v>41480</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72431</v>
+        <v>71643</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1206692100478425</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09255839811307887</v>
+        <v>0.09025508099703855</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1576007922925195</v>
+        <v>0.1558859116480195</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -4444,19 +4444,19 @@
         <v>57130</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44709</v>
+        <v>45101</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73900</v>
+        <v>70510</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1799868675357008</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1408536573937629</v>
+        <v>0.1420878505601715</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2328184962552589</v>
+        <v>0.2221380427923577</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>110</v>
@@ -4465,19 +4465,19 @@
         <v>112588</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93930</v>
+        <v>93581</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>133241</v>
+        <v>135031</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1449011288728966</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.120887288558018</v>
+        <v>0.1204381066962371</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1714814730682757</v>
+        <v>0.1737842452024262</v>
       </c>
     </row>
     <row r="17">
@@ -4494,19 +4494,19 @@
         <v>58180</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45121</v>
+        <v>44790</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74054</v>
+        <v>73131</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1265925956891225</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0981766902839613</v>
+        <v>0.09745788691412167</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1611303174963585</v>
+        <v>0.1591222791035222</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -4515,19 +4515,19 @@
         <v>33671</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24049</v>
+        <v>24245</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45537</v>
+        <v>45185</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1060783864136136</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07576402311656097</v>
+        <v>0.07638157716530987</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1434636420319596</v>
+        <v>0.1423527936009264</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>90</v>
@@ -4536,19 +4536,19 @@
         <v>91851</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75204</v>
+        <v>73905</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>111346</v>
+        <v>111824</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1182123144208331</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0967869833825451</v>
+        <v>0.09511548249071039</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1433019465371006</v>
+        <v>0.1439168734671281</v>
       </c>
     </row>
     <row r="18">
@@ -4565,19 +4565,19 @@
         <v>103170</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>86310</v>
+        <v>85562</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>122086</v>
+        <v>122411</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2244842384775615</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1877989747708746</v>
+        <v>0.1861715016376009</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2656429989485237</v>
+        <v>0.266350431551863</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>84</v>
@@ -4586,19 +4586,19 @@
         <v>81371</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>67379</v>
+        <v>69040</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>97918</v>
+        <v>98572</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2563550900530277</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2122740144827711</v>
+        <v>0.2175080512914035</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3084852712450262</v>
+        <v>0.3105460832163715</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>183</v>
@@ -4607,19 +4607,19 @@
         <v>184541</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>162528</v>
+        <v>161950</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>209674</v>
+        <v>208068</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2375038336701081</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2091736125373301</v>
+        <v>0.2084294288614753</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2698497646331007</v>
+        <v>0.2677832675499435</v>
       </c>
     </row>
     <row r="19">
@@ -4636,19 +4636,19 @@
         <v>106643</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>86862</v>
+        <v>88476</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>123154</v>
+        <v>124546</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2320410741261484</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1890006216978505</v>
+        <v>0.1925114936000623</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2679662373624545</v>
+        <v>0.2709940659759086</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -4657,19 +4657,19 @@
         <v>57950</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45186</v>
+        <v>45532</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72430</v>
+        <v>72883</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1825687553132846</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1423574750605515</v>
+        <v>0.14344519532763</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2281867523923547</v>
+        <v>0.2296136706515363</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>158</v>
@@ -4678,19 +4678,19 @@
         <v>164593</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>141855</v>
+        <v>142507</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>187914</v>
+        <v>189787</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.211831084987486</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1825672978015675</v>
+        <v>0.1834060973953016</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2418458554530265</v>
+        <v>0.2442557393078431</v>
       </c>
     </row>
     <row r="20">
@@ -4707,19 +4707,19 @@
         <v>136136</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>117022</v>
+        <v>117330</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>158454</v>
+        <v>155621</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2962128816593251</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2546247256823767</v>
+        <v>0.2552946290819125</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3447735577765369</v>
+        <v>0.3386088213805157</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>85</v>
@@ -4728,19 +4728,19 @@
         <v>87292</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>71817</v>
+        <v>73324</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>102814</v>
+        <v>103360</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2750109006843733</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2262571057809848</v>
+        <v>0.2310030022881253</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3239103269558707</v>
+        <v>0.3256311996204153</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>215</v>
@@ -4749,19 +4749,19 @@
         <v>223428</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>198089</v>
+        <v>198712</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>248194</v>
+        <v>249900</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2875516380486762</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2549410786843609</v>
+        <v>0.2557418392502318</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.319426100812498</v>
+        <v>0.3216211976619844</v>
       </c>
     </row>
     <row r="21">
@@ -4853,19 +4853,19 @@
         <v>64498</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>49948</v>
+        <v>50249</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>83266</v>
+        <v>82894</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1753972389217543</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1358274285212608</v>
+        <v>0.1366478149941069</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2264329180535317</v>
+        <v>0.2254233067886975</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>47</v>
@@ -4874,19 +4874,19 @@
         <v>51191</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38977</v>
+        <v>38973</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>66326</v>
+        <v>64691</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2105583895054618</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1603216201060916</v>
+        <v>0.160303116499884</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2728145162639282</v>
+        <v>0.2660874515909981</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>101</v>
@@ -4895,19 +4895,19 @@
         <v>115689</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>96779</v>
+        <v>96989</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>137170</v>
+        <v>140015</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1893914485289033</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1584350696622741</v>
+        <v>0.1587775807608313</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2245567028733124</v>
+        <v>0.2292144906244465</v>
       </c>
     </row>
     <row r="23">
@@ -4924,19 +4924,19 @@
         <v>37477</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>25771</v>
+        <v>26587</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>50122</v>
+        <v>49926</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.101914100866098</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07008205092284985</v>
+        <v>0.0722997021059157</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1363019710646335</v>
+        <v>0.1357689782564787</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -4945,19 +4945,19 @@
         <v>30152</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>21179</v>
+        <v>21510</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>41866</v>
+        <v>42287</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1240222623194502</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08711611991682634</v>
+        <v>0.08847381082845081</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1722063560268997</v>
+        <v>0.173936595026289</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>63</v>
@@ -4966,19 +4966,19 @@
         <v>67629</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>53452</v>
+        <v>54004</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>86246</v>
+        <v>83776</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1107131941912824</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08750406743793603</v>
+        <v>0.08840773321063014</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1411918125126015</v>
+        <v>0.1371467729275324</v>
       </c>
     </row>
     <row r="24">
@@ -4995,19 +4995,19 @@
         <v>89029</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>71917</v>
+        <v>72779</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>108201</v>
+        <v>107378</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2421059229231186</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1955701948699481</v>
+        <v>0.1979146345593291</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2942416628497966</v>
+        <v>0.2920047337295322</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -5016,19 +5016,19 @@
         <v>50699</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>38915</v>
+        <v>38166</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>64374</v>
+        <v>63831</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2085355971101765</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1600671256632383</v>
+        <v>0.1569851043093978</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2647870196495734</v>
+        <v>0.262552708485789</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>127</v>
@@ -5037,19 +5037,19 @@
         <v>139728</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>119681</v>
+        <v>120490</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>162754</v>
+        <v>163070</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2287448648175775</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.195926783410209</v>
+        <v>0.1972508331748426</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2664409659223003</v>
+        <v>0.266958167694225</v>
       </c>
     </row>
     <row r="25">
@@ -5066,19 +5066,19 @@
         <v>87629</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>71668</v>
+        <v>70273</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>106857</v>
+        <v>105709</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2382988932163305</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1948937039655992</v>
+        <v>0.1911009050907272</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2905860156046455</v>
+        <v>0.2874656953646522</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -5087,19 +5087,19 @@
         <v>48634</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37427</v>
+        <v>37152</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62077</v>
+        <v>61624</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2000425356194703</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.153947642329354</v>
+        <v>0.152813478797105</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.255338622812827</v>
+        <v>0.2534742500993475</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>125</v>
@@ -5108,19 +5108,19 @@
         <v>136263</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>117834</v>
+        <v>117695</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>156741</v>
+        <v>157232</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2230727849084704</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1929030208758635</v>
+        <v>0.1926757360273762</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2565968034627039</v>
+        <v>0.257400845420502</v>
       </c>
     </row>
     <row r="26">
@@ -5137,19 +5137,19 @@
         <v>89095</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>72555</v>
+        <v>72911</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>107256</v>
+        <v>106270</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2422838440726986</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1973050954065446</v>
+        <v>0.198274318389249</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2916713675652019</v>
+        <v>0.2889907688650474</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>57</v>
@@ -5158,19 +5158,19 @@
         <v>62443</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>49349</v>
+        <v>49148</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>77866</v>
+        <v>77611</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2568412154454412</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2029852244453136</v>
+        <v>0.202158718359987</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.320279725903221</v>
+        <v>0.3192331038714394</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>138</v>
@@ -5179,19 +5179,19 @@
         <v>151537</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>128505</v>
+        <v>129604</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>173045</v>
+        <v>173254</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2480777075537664</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2103719679934369</v>
+        <v>0.2121705275539601</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2832880303708133</v>
+        <v>0.2836302414723079</v>
       </c>
     </row>
     <row r="27">
@@ -5283,19 +5283,19 @@
         <v>15121</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8697</v>
+        <v>8418</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26661</v>
+        <v>23990</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09123802631634545</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05247686752168968</v>
+        <v>0.0507932511387917</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1608728142530537</v>
+        <v>0.1447595359387427</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>23</v>
@@ -5304,19 +5304,19 @@
         <v>26901</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>18968</v>
+        <v>18284</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>37030</v>
+        <v>37593</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2540711981465847</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1791490301116777</v>
+        <v>0.1726908206887742</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3497361473663458</v>
+        <v>0.3550601793546042</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>36</v>
@@ -5325,19 +5325,19 @@
         <v>42021</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>29956</v>
+        <v>30897</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>54805</v>
+        <v>55369</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1547146619640961</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1102925895299655</v>
+        <v>0.1137583936420046</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2017808193591638</v>
+        <v>0.2038569746511924</v>
       </c>
     </row>
     <row r="29">
@@ -5354,19 +5354,19 @@
         <v>18282</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11253</v>
+        <v>10597</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>29006</v>
+        <v>28515</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1103175780889855</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06789909898589437</v>
+        <v>0.06394436658979838</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1750256101367056</v>
+        <v>0.1720591217144357</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -5375,19 +5375,19 @@
         <v>15165</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8064</v>
+        <v>8894</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24594</v>
+        <v>24922</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1432331846472878</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07615822262586819</v>
+        <v>0.08399836467745153</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.232281527954962</v>
+        <v>0.2353855675447152</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>28</v>
@@ -5396,19 +5396,19 @@
         <v>33448</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>23259</v>
+        <v>23456</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>47978</v>
+        <v>46972</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1231489437200888</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08563477363997604</v>
+        <v>0.08635899761712364</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1766466287158287</v>
+        <v>0.1729427964238695</v>
       </c>
     </row>
     <row r="30">
@@ -5425,19 +5425,19 @@
         <v>39151</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>28506</v>
+        <v>28307</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>51364</v>
+        <v>51648</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2362385250036339</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1720076523210658</v>
+        <v>0.1708037723070643</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3099347763270838</v>
+        <v>0.3116444787044592</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>19</v>
@@ -5446,19 +5446,19 @@
         <v>21501</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>13977</v>
+        <v>13924</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31422</v>
+        <v>31200</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2030735810716614</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1320092547767892</v>
+        <v>0.1315054501059774</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2967724976794803</v>
+        <v>0.2946720065276766</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>54</v>
@@ -5467,19 +5467,19 @@
         <v>60652</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>47234</v>
+        <v>46370</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>75357</v>
+        <v>74797</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.223309961133106</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1739063758266106</v>
+        <v>0.1707254614753705</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2774490269425989</v>
+        <v>0.2753891722493411</v>
       </c>
     </row>
     <row r="31">
@@ -5496,19 +5496,19 @@
         <v>29932</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20601</v>
+        <v>20477</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42467</v>
+        <v>42128</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1806113577531916</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1243104110280159</v>
+        <v>0.1235570876115777</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2562494490502419</v>
+        <v>0.2542013669928389</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>14</v>
@@ -5517,19 +5517,19 @@
         <v>15830</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9100</v>
+        <v>9532</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>23848</v>
+        <v>25098</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1495093628667306</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08594685126732327</v>
+        <v>0.09003015647312737</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2252360814459117</v>
+        <v>0.2370434214044082</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>40</v>
@@ -5538,19 +5538,19 @@
         <v>45762</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>34659</v>
+        <v>33862</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>61175</v>
+        <v>60055</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1684869854576968</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1276081040375718</v>
+        <v>0.1246735052692991</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2252362267534776</v>
+        <v>0.2211130039576454</v>
       </c>
     </row>
     <row r="32">
@@ -5567,19 +5567,19 @@
         <v>63240</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>51132</v>
+        <v>49438</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>76298</v>
+        <v>76651</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3815945128378436</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3085325212123129</v>
+        <v>0.2983094296263537</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4603884705913085</v>
+        <v>0.4625157638726439</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>22</v>
@@ -5588,19 +5588,19 @@
         <v>26482</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>17882</v>
+        <v>17480</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>36119</v>
+        <v>37296</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2501126732677355</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1688877257857343</v>
+        <v>0.1650914075305832</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3411350930538497</v>
+        <v>0.3522519363311983</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>78</v>
@@ -5609,19 +5609,19 @@
         <v>89722</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>72995</v>
+        <v>74834</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>107217</v>
+        <v>107484</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3303394477250123</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2687552802299984</v>
+        <v>0.2755238309255839</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3947528770773512</v>
+        <v>0.3957353277896137</v>
       </c>
     </row>
     <row r="33">
@@ -5713,19 +5713,19 @@
         <v>208978</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>183388</v>
+        <v>181826</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>238305</v>
+        <v>236424</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1475483343963626</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1294803330236287</v>
+        <v>0.1283777774177462</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1682542780958702</v>
+        <v>0.1669265591172341</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>187</v>
@@ -5734,19 +5734,19 @@
         <v>194402</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>169066</v>
+        <v>170407</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>220246</v>
+        <v>221772</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1883768620046717</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1638268542358808</v>
+        <v>0.1651255772084693</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2134206483946004</v>
+        <v>0.2148986135241817</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>377</v>
@@ -5755,19 +5755,19 @@
         <v>403380</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>371149</v>
+        <v>366883</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>439793</v>
+        <v>441990</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1647578161192035</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1515935601604763</v>
+        <v>0.1498512147652205</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1796306953464039</v>
+        <v>0.180527897040392</v>
       </c>
     </row>
     <row r="35">
@@ -5784,19 +5784,19 @@
         <v>182394</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>158142</v>
+        <v>155028</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>209817</v>
+        <v>208001</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1287787342131426</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1116559748305286</v>
+        <v>0.1094568572342605</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1481403552198892</v>
+        <v>0.1468581743716836</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>142</v>
@@ -5805,19 +5805,19 @@
         <v>143422</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>121200</v>
+        <v>122771</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>167556</v>
+        <v>167756</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.138977315025586</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1174442481814948</v>
+        <v>0.1189661708423892</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1623628920743687</v>
+        <v>0.162556967799646</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>310</v>
@@ -5826,19 +5826,19 @@
         <v>325816</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>293557</v>
+        <v>294892</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>363634</v>
+        <v>361851</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1330775003056759</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1199013088281367</v>
+        <v>0.1204467909131243</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1485238501684705</v>
+        <v>0.1477957071864464</v>
       </c>
     </row>
     <row r="36">
@@ -5855,19 +5855,19 @@
         <v>321776</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>289648</v>
+        <v>289967</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>352294</v>
+        <v>353310</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2271887602125272</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2045052214571888</v>
+        <v>0.2047300582863866</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2487358701684181</v>
+        <v>0.2494530344494705</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>233</v>
@@ -5876,19 +5876,19 @@
         <v>235281</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>210123</v>
+        <v>209558</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>263195</v>
+        <v>263288</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2279892776830816</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2036107417787917</v>
+        <v>0.203063728536047</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2550379276539153</v>
+        <v>0.2551283244000766</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>538</v>
@@ -5897,19 +5897,19 @@
         <v>557056</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>516123</v>
+        <v>512100</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>597369</v>
+        <v>597434</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2275261833719045</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2108070295468144</v>
+        <v>0.2091641389138397</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2439914918662202</v>
+        <v>0.2440181536189307</v>
       </c>
     </row>
     <row r="37">
@@ -5926,19 +5926,19 @@
         <v>319934</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>286474</v>
+        <v>290175</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>351649</v>
+        <v>353972</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2258885385277978</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.202264330204255</v>
+        <v>0.2048771049033186</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2482806712726814</v>
+        <v>0.2499205742673034</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>205</v>
@@ -5947,19 +5947,19 @@
         <v>207484</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>183323</v>
+        <v>183941</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>234249</v>
+        <v>234519</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2010536406552324</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1776420487481635</v>
+        <v>0.178240496947014</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2269890315133216</v>
+        <v>0.2272507269150285</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>503</v>
@@ -5968,19 +5968,19 @@
         <v>527418</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>489131</v>
+        <v>491278</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>568792</v>
+        <v>568254</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2154204725439646</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1997824288471605</v>
+        <v>0.2006592314267193</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2323194648055419</v>
+        <v>0.2320996444993069</v>
       </c>
     </row>
     <row r="38">
@@ -5997,19 +5997,19 @@
         <v>383255</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>348364</v>
+        <v>346574</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>420645</v>
+        <v>415251</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2705956326501697</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2459609602044038</v>
+        <v>0.2446975112633692</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2969949709355487</v>
+        <v>0.2931865264868005</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>241</v>
@@ -6018,19 +6018,19 @@
         <v>251394</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>221346</v>
+        <v>223650</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>276586</v>
+        <v>282098</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2436029046314284</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2144862209914911</v>
+        <v>0.2167185145121633</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.268014164931873</v>
+        <v>0.273355553054642</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>597</v>
@@ -6039,19 +6039,19 @@
         <v>634648</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>589296</v>
+        <v>592198</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>676823</v>
+        <v>680977</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2592180276592514</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2406943840505118</v>
+        <v>0.241879551823103</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2764441393862796</v>
+        <v>0.2781408134703335</v>
       </c>
     </row>
     <row r="39">
